--- a/res/testcase/monthticket/monthTicketManager.xlsx
+++ b/res/testcase/monthticket/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="843" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -622,8 +622,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -656,7 +656,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +664,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +680,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,70 +708,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,6 +729,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -792,8 +760,40 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,25 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,66 +868,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,13 +880,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +916,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,13 +976,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,60 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1092,7 +1038,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,8 +1061,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,133 +1140,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1991,8 +1991,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2403,8 +2403,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/res/testcase/monthticket/monthTicketManager.xlsx
+++ b/res/testcase/monthticket/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="843" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="843" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="007_editExternalTicket" sheetId="11" r:id="rId8"/>
     <sheet name="008_checkSupperParking" sheetId="12" r:id="rId9"/>
     <sheet name="009_filterMonthTicket" sheetId="13" r:id="rId10"/>
-    <sheet name="010_delExternalTicket" sheetId="10" r:id="rId11"/>
+    <sheet name="010_updateInformation" sheetId="14" r:id="rId11"/>
+    <sheet name="011_delExternalTicket" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>动作</t>
   </si>
@@ -615,6 +616,33 @@
   </si>
   <si>
     <t>2车场筛选月票界面</t>
+  </si>
+  <si>
+    <t>点击同步详情</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.同步详情</t>
+  </si>
+  <si>
+    <t>点击重新同步</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.重新同步</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.同步详情列表</t>
+  </si>
+  <si>
+    <t>发送成功</t>
+  </si>
+  <si>
+    <t>3月票同步详情提示界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.关闭-提示</t>
   </si>
 </sst>
 </file>
@@ -656,45 +684,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,22 +719,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,23 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,6 +775,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -775,9 +789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,9 +805,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,13 +842,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,169 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,22 +1051,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,23 +1108,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,6 +1137,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,10 +1156,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,133 +1168,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2148,8 +2176,263 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="36" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="36" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C13">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2403,8 +2686,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/res/testcase/monthticket/monthTicketManager.xlsx
+++ b/res/testcase/monthticket/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="843" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="988" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,21 @@
     <sheet name="009_filterMonthTicket" sheetId="13" r:id="rId10"/>
     <sheet name="010_updateInformation" sheetId="14" r:id="rId11"/>
     <sheet name="011_delExternalTicket" sheetId="10" r:id="rId12"/>
+    <sheet name="012_addInternalTicketCloud" sheetId="15" r:id="rId13"/>
+    <sheet name="013_TicketUpLowerlineCloud" sheetId="16" r:id="rId14"/>
+    <sheet name="014_editInternalTicketCloud" sheetId="18" r:id="rId15"/>
+    <sheet name="015_delInternalTicketCloud" sheetId="17" r:id="rId16"/>
+    <sheet name="016_addInternalTicketWayside" sheetId="19" r:id="rId17"/>
+    <sheet name="017_TicketUpLowerlineWayside" sheetId="20" r:id="rId18"/>
+    <sheet name="018_editInternalTicketWayside" sheetId="22" r:id="rId19"/>
+    <sheet name="019_delInternalTicketWayside" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t>动作</t>
   </si>
@@ -357,225 +365,231 @@
     <t>MonthTicketPage.选择停车场列表</t>
   </si>
   <si>
+    <t>AKE入口;on</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AKE出口;on</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>点击财务主体</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.财务主体</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>输入支持授权车牌数</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.支持授权车牌数</t>
+  </si>
+  <si>
+    <t>点击可售时间</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.可售时间</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>点击后一天</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.后一天</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>输入允许车主向前续费</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.允许车主向前续费</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>续费方式</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.续费方式</t>
+  </si>
+  <si>
+    <t>自然月</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>输入单价</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.单价</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>月票数量</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.月票数量</t>
+  </si>
+  <si>
+    <t>无限</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.备注</t>
+  </si>
+  <si>
+    <t>UI自动化测试</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2月票管理新增</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.确认-提示</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>月票创建成功</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>选择搜索类型</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.选择搜索类型</t>
+  </si>
+  <si>
+    <t>月票名称</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.搜索框</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2月票管理查询界面</t>
+  </si>
+  <si>
+    <t>点击上架</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.上架</t>
+  </si>
+  <si>
+    <t>3月票上架成功界面</t>
+  </si>
+  <si>
+    <t>点击下架</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.下架</t>
+  </si>
+  <si>
+    <t>4月票下架成功界面</t>
+  </si>
+  <si>
+    <t>点击编辑</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.编辑</t>
+  </si>
+  <si>
+    <t>UI对内月票修改</t>
+  </si>
+  <si>
+    <t>3月票修改界面</t>
+  </si>
+  <si>
+    <t>月票修改成功</t>
+  </si>
+  <si>
+    <t>4操作成功</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.删除</t>
+  </si>
+  <si>
+    <t>3月票删除提示界面</t>
+  </si>
+  <si>
+    <t>删除月票成功</t>
+  </si>
+  <si>
+    <t>4月票删除成功界面</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.对外创建月票</t>
+  </si>
+  <si>
+    <t>UI对外月票</t>
+  </si>
+  <si>
+    <t>艾科智泊对外</t>
+  </si>
+  <si>
     <t>180主入口a;on</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>181主出口b;on</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.确认-二级提示</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>点击财务主体</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.财务主体</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>输入支持授权车牌数</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.支持授权车牌数</t>
-  </si>
-  <si>
-    <t>点击可售时间</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.可售时间</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>点击后一天</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.后一天</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>输入允许车主向前续费</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.允许车主向前续费</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>续费方式</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.续费方式</t>
-  </si>
-  <si>
-    <t>自然月</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>输入单价</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.单价</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>月票数量</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.月票数量</t>
-  </si>
-  <si>
-    <t>无限</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.备注</t>
-  </si>
-  <si>
-    <t>UI自动化测试</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2月票管理新增</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.确认-提示</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>月票创建成功</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>选择搜索类型</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.选择搜索类型</t>
-  </si>
-  <si>
-    <t>月票名称</t>
-  </si>
-  <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.搜索框</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2月票管理查询界面</t>
-  </si>
-  <si>
-    <t>点击上架</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.上架</t>
-  </si>
-  <si>
-    <t>3月票上架成功界面</t>
-  </si>
-  <si>
-    <t>点击下架</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.下架</t>
-  </si>
-  <si>
-    <t>4月票下架成功界面</t>
-  </si>
-  <si>
-    <t>点击编辑</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.编辑</t>
-  </si>
-  <si>
-    <t>UI对内月票修改</t>
-  </si>
-  <si>
-    <t>3月票修改界面</t>
-  </si>
-  <si>
-    <t>月票修改成功</t>
-  </si>
-  <si>
-    <t>4操作成功</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.删除</t>
-  </si>
-  <si>
-    <t>3月票删除提示界面</t>
-  </si>
-  <si>
-    <t>删除月票成功</t>
-  </si>
-  <si>
-    <t>4月票删除成功界面</t>
-  </si>
-  <si>
-    <t>MonthTicketPage.对外创建月票</t>
-  </si>
-  <si>
-    <t>UI对外月票</t>
-  </si>
-  <si>
-    <t>艾科智泊对外</t>
-  </si>
-  <si>
     <t>选择有效期类型</t>
   </si>
   <si>
@@ -643,6 +657,33 @@
   </si>
   <si>
     <t>MonthTicketPage.关闭-提示</t>
+  </si>
+  <si>
+    <t>云停车场</t>
+  </si>
+  <si>
+    <t>UI对内月票云端</t>
+  </si>
+  <si>
+    <t>内场入口;on</t>
+  </si>
+  <si>
+    <t>内场出口;on</t>
+  </si>
+  <si>
+    <t>UI对内月票云端修改</t>
+  </si>
+  <si>
+    <t>路边停车场</t>
+  </si>
+  <si>
+    <t>UI对内月票路边</t>
+  </si>
+  <si>
+    <t>桂城专用停车点;on</t>
+  </si>
+  <si>
+    <t>UI对内月票路边修改</t>
   </si>
 </sst>
 </file>
@@ -650,10 +691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -684,35 +725,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -727,9 +755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,24 +764,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,30 +813,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -806,6 +837,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -813,15 +852,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +901,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,31 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,31 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,43 +1003,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,31 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,6 +1088,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,39 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1165,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1156,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,133 +1209,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,7 +1355,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1324,12 +1371,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2121,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2130,16 +2171,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:5">
@@ -2154,7 +2195,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2217,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2299,7 +2340,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
@@ -2337,13 +2378,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2352,13 +2393,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2373,10 +2414,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:5">
@@ -2391,7 +2432,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:5">
@@ -2399,13 +2440,13 @@
         <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2554,7 +2595,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
@@ -2681,13 +2722,2363 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C14 C19 C2:C4 C12:C13 C15:C18 C20:C26">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C29">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 B12 C12 C13 C14 C15 B16 C16 C17">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C29">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="26" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8 C16:C17">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 B14 C14 C15">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C14">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C40:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C18 C2:C4 C14:C17 C19:C25">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C28">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C39">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 B12 C12 C13 C14 C15 B16 C16 C17">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C29">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="26" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8 C16:C17">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C10 C11 C12 C13 B14 C14 C15">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2762,7 +5153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="29" customHeight="1" spans="1:5">
+    <row r="5" s="5" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -2812,7 +5203,7 @@
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2824,13 +5215,13 @@
       <c r="E8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2842,13 +5233,13 @@
       <c r="E9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2857,13 +5248,13 @@
       <c r="D10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2875,13 +5266,13 @@
       <c r="E11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2893,13 +5284,13 @@
       <c r="E12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" ht="29" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2908,13 +5299,13 @@
       <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" ht="29" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2923,115 +5314,115 @@
       <c r="D14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="29" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" ht="29" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" ht="29" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" ht="29" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="29" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3043,13 +5434,13 @@
       <c r="E21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3061,7 +5452,7 @@
       <c r="E22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
@@ -3077,9 +5468,9 @@
       <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>147</v>
       </c>
@@ -3093,7 +5484,7 @@
         <v>149</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" ht="29" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
@@ -3111,7 +5502,7 @@
       <c r="E25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" ht="29" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
@@ -3126,7 +5517,7 @@
       <c r="E26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3149,13 +5540,267 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 C14">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A10:E17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3463,7 +6108,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A2:E15"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3735,7 +6380,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3988,8 +6633,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4115,7 +6760,7 @@
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4132,7 +6777,7 @@
       <c r="A9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4149,7 +6794,7 @@
       <c r="A10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4164,7 +6809,7 @@
       <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4174,14 +6819,14 @@
         <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4191,14 +6836,14 @@
         <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4213,7 +6858,7 @@
       <c r="A14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4228,13 +6873,13 @@
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -4245,13 +6890,13 @@
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="2"/>
@@ -4260,13 +6905,13 @@
       <c r="A17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E17" s="2"/>
@@ -4275,13 +6920,13 @@
       <c r="A18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="8" t="s">
         <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -4292,30 +6937,30 @@
       <c r="A19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>183</v>
+      <c r="B19" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>184</v>
+      <c r="D19" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -4326,13 +6971,13 @@
       <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -4343,7 +6988,7 @@
       <c r="A22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4360,7 +7005,7 @@
       <c r="A23" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -4422,7 +7067,7 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>87</v>
@@ -4454,7 +7099,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4507,7 +7152,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -4522,7 +7167,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -4946,7 +7591,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -5034,7 +7679,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:E12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5199,7 +7844,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -5215,7 +7860,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
@@ -5229,7 +7874,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3"/>
     </row>

--- a/res/testcase/monthticket/monthTicketManager.xlsx
+++ b/res/testcase/monthticket/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="988" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="988" firstSheet="14" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>动作</t>
   </si>
@@ -365,13 +365,13 @@
     <t>MonthTicketPage.选择停车场列表</t>
   </si>
   <si>
-    <t>AKE入口;on</t>
+    <t>$全局变量.停车场入口;on</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>AKE出口;on</t>
+    <t>$全局变量.停车场出口;on</t>
   </si>
   <si>
     <t>12</t>
@@ -584,12 +584,6 @@
     <t>艾科智泊对外</t>
   </si>
   <si>
-    <t>180主入口a;on</t>
-  </si>
-  <si>
-    <t>181主出口b;on</t>
-  </si>
-  <si>
     <t>选择有效期类型</t>
   </si>
   <si>
@@ -626,7 +620,7 @@
     <t>MonthTicketPage.停车场列表</t>
   </si>
   <si>
-    <t>出租车停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>2车场筛选月票界面</t>
@@ -665,10 +659,10 @@
     <t>UI对内月票云端</t>
   </si>
   <si>
-    <t>内场入口;on</t>
-  </si>
-  <si>
-    <t>内场出口;on</t>
+    <t>$全局变量.云停车场入口;on</t>
+  </si>
+  <si>
+    <t>$全局变量.云停车场出口;on</t>
   </si>
   <si>
     <t>UI对内月票云端修改</t>
@@ -680,7 +674,7 @@
     <t>UI对内月票路边</t>
   </si>
   <si>
-    <t>桂城专用停车点;on</t>
+    <t>$全局变量.路边停车场;on</t>
   </si>
   <si>
     <t>UI对内月票路边修改</t>
@@ -725,104 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +741,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,8 +795,68 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,108 +872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,25 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +919,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1009,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,11 +1086,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,6 +1136,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,56 +1183,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1197,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,133 +1203,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,7 +1443,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2061,7 +2055,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -2162,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2171,16 +2165,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:5">
@@ -2195,7 +2189,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2212,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2340,7 +2334,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
@@ -2378,13 +2372,13 @@
         <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2393,13 +2387,13 @@
         <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2414,10 +2408,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1" spans="1:5">
@@ -2432,7 +2426,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:5">
@@ -2440,13 +2434,13 @@
         <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2473,7 +2467,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2595,7 +2589,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:5">
@@ -2727,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2737,7 +2731,7 @@
     <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2849,7 +2843,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -2866,7 +2860,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -2918,7 +2912,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -2936,7 +2930,7 @@
         <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -3204,7 +3198,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3327,7 +3321,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3513,7 +3507,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3635,7 +3629,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3697,7 +3691,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3785,7 +3779,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3906,7 +3900,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
@@ -4039,7 +4033,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4160,7 +4154,7 @@
         <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -4177,7 +4171,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -4229,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -4496,8 +4490,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4620,7 +4614,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4928,7 +4922,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4990,7 +4984,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -5077,8 +5071,8 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5546,7 +5540,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5667,7 +5661,7 @@
         <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
@@ -5800,7 +5794,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6108,7 +6102,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6380,7 +6374,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6634,7 +6628,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6819,7 +6813,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:5">
@@ -6836,7 +6830,7 @@
         <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:5">
@@ -6938,16 +6932,16 @@
         <v>130</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" ht="25" customHeight="1" spans="1:5">
@@ -7067,7 +7061,7 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>87</v>
@@ -7099,8 +7093,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7152,7 +7146,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -7167,7 +7161,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -7407,7 +7401,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7591,7 +7585,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -7679,7 +7673,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7844,7 +7838,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -7860,7 +7854,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
@@ -7874,7 +7868,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="3"/>
     </row>
